--- a/experiments_results.xlsx
+++ b/experiments_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\IF5171\stock-pred-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F25B4-5E55-4697-BC86-A19B690DCCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92491567-B8B4-448C-B8D6-3914D53C68CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6012" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{3FE4B6CD-8075-4736-989F-33E8D1AF35F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3FE4B6CD-8075-4736-989F-33E8D1AF35F6}"/>
   </bookViews>
   <sheets>
     <sheet name="exp-features set 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>MFI 21</t>
-  </si>
-  <si>
-    <t>LSTM Univariate</t>
   </si>
   <si>
     <t>LSTM Multivariate</t>
@@ -503,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,13 +548,11 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
@@ -599,15 +594,6 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -649,15 +635,6 @@
       <c r="M4">
         <v>0.98337799999999997</v>
       </c>
-      <c r="N4">
-        <v>69.098175999999995</v>
-      </c>
-      <c r="O4">
-        <v>1.421333</v>
-      </c>
-      <c r="P4">
-        <v>0.98517399999999999</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -699,15 +676,6 @@
       <c r="M5">
         <v>0.98049900000000001</v>
       </c>
-      <c r="N5">
-        <v>200.922304</v>
-      </c>
-      <c r="O5">
-        <v>2.4413480000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.98215600000000003</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -749,15 +717,6 @@
       <c r="M6">
         <v>0.96136200000000005</v>
       </c>
-      <c r="N6">
-        <v>3.7139099999999998</v>
-      </c>
-      <c r="O6">
-        <v>3.1553499999999999</v>
-      </c>
-      <c r="P6">
-        <v>0.96239799999999998</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -798,15 +757,6 @@
       </c>
       <c r="M7">
         <v>0.96387199999999995</v>
-      </c>
-      <c r="N7">
-        <v>66.369156000000004</v>
-      </c>
-      <c r="O7">
-        <v>1.940437</v>
-      </c>
-      <c r="P7">
-        <v>0.96346500000000002</v>
       </c>
     </row>
   </sheetData>
